--- a/biology/Médecine/Nicolas_de_Pologne/Nicolas_de_Pologne.xlsx
+++ b/biology/Médecine/Nicolas_de_Pologne/Nicolas_de_Pologne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas de Pologne ou Nicolas de Montpellier, né vers 1235 en Silésie et mort vers 1316 à Cracovie, est un médecin empirique et frère dominicain, qui a vécu à Montpellier au XIIIe siècle. Il est aussi connu sous les noms de  : Nicolas de Polonia, Nicolas de Bohemia, Nicolaus Polonus, Nicklas von Monpolir, Nikolaus von Mumpelier, Mikulás z Polski, Mikołaj z Polski.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas de Pologne était allemand d'origine, probablement né en Silésie. Il appartenait à l'ordre des frères prêcheurs. Il a vécu longtemps à Montpellier, vers 1270. "Par la suite, il dut gagner la Pologne, car il se signala comme médecin de Lech II le Noir, Senior de Pologne, et de son épouse Griphine." Il vivait au couvent dominicain de Cracovie.
 </t>
@@ -542,7 +556,9 @@
           <t>Pensée médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est opposé à la médecine hippocratique. Il soignait en ayant recours à des moyens magiques.
 </t>
